--- a/Data/Input/Template_Rapport_Activités.xlsx
+++ b/Data/Input/Template_Rapport_Activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Talents\Documents\UiPath\RobTalent_UpdateChapter_Amplitude_TALENT_v1.0\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim Gueye\Documents\UiPath\RobTalent_UpdateChapter_Amplitude_TALENT_v1\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD215417-BFD9-4F64-B604-3E85FBB5BEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D8898D-4888-4883-9F76-354187BA8460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Tickets" sheetId="2" r:id="rId1"/>
@@ -45,9 +45,7 @@
     </font>
     <font>
       <b/>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF006400"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -56,7 +54,6 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FF8B0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -108,13 +105,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,16 +419,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B59459-6E26-40C1-A3CF-85BC9D0D61B6}">
   <dimension ref="A1:S179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="63.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="63.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.90625" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" style="4" customWidth="1"/>
     <col min="5" max="6" width="11.453125" customWidth="1"/>
     <col min="7" max="7" width="14.453125" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
@@ -444,7 +442,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -465,7 +463,7 @@
     </row>
     <row r="2" spans="1:19" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -486,7 +484,7 @@
     </row>
     <row r="3" spans="1:19" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
@@ -507,7 +505,7 @@
     </row>
     <row r="4" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
@@ -528,7 +526,7 @@
     </row>
     <row r="5" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
@@ -549,7 +547,7 @@
     </row>
     <row r="6" spans="1:19" ht="40.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -570,7 +568,7 @@
     </row>
     <row r="7" spans="1:19" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -591,7 +589,7 @@
     </row>
     <row r="8" spans="1:19" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -612,7 +610,7 @@
     </row>
     <row r="9" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -633,7 +631,7 @@
     </row>
     <row r="10" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -654,7 +652,7 @@
     </row>
     <row r="11" spans="1:19" ht="40.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
@@ -675,630 +673,482 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
-      <c r="B17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="6"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="D20" s="6"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
-      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
-      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
-      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="D73" s="6"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="D74" s="6"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
-      <c r="D90" s="6"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
-      <c r="D97" s="6"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
-      <c r="D103" s="6"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
-      <c r="D105" s="6"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
-      <c r="D109" s="6"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
-      <c r="D110" s="6"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
-      <c r="D111" s="6"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
-      <c r="D112" s="6"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
-      <c r="D113" s="6"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
-      <c r="D114" s="6"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
-      <c r="D115" s="6"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
-      <c r="D116" s="6"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
-      <c r="D117" s="6"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
-      <c r="D118" s="6"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
-      <c r="D119" s="6"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
-      <c r="D120" s="6"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
-      <c r="D121" s="6"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
-      <c r="D122" s="6"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
-      <c r="D123" s="6"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
-      <c r="D124" s="6"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
-      <c r="D125" s="6"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
-      <c r="D126" s="6"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
-      <c r="D127" s="6"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
-      <c r="D128" s="6"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
-      <c r="D129" s="6"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
-      <c r="D130" s="6"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
-      <c r="D131" s="6"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
-      <c r="D132" s="6"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
-      <c r="D133" s="6"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
-      <c r="D134" s="6"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
-      <c r="D135" s="6"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
-      <c r="D136" s="6"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
-      <c r="D137" s="6"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
-      <c r="D138" s="6"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
-      <c r="D139" s="6"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
-      <c r="D140" s="6"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
-      <c r="D141" s="6"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
-      <c r="D142" s="6"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
-      <c r="D143" s="6"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
-      <c r="D144" s="6"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
-      <c r="D145" s="6"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
-      <c r="D146" s="6"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
-      <c r="D147" s="6"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
-      <c r="D148" s="6"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
-      <c r="D149" s="6"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
-      <c r="D150" s="6"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
-      <c r="D151" s="6"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
-      <c r="D152" s="6"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
-      <c r="D153" s="6"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
-      <c r="D154" s="6"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
-      <c r="D155" s="6"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
-      <c r="D156" s="6"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
-      <c r="D157" s="6"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
-      <c r="D158" s="6"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
-      <c r="D159" s="6"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">

--- a/Data/Input/Template_Rapport_Activités.xlsx
+++ b/Data/Input/Template_Rapport_Activités.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim Gueye\Documents\UiPath\RobTalent_UpdateChapter_Amplitude_TALENT_v1\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D8898D-4888-4883-9F76-354187BA8460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE42780-0766-44AC-BE01-591FF12BE48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Tickets" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -94,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -105,14 +113,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,32 +435,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B59459-6E26-40C1-A3CF-85BC9D0D61B6}">
-  <dimension ref="A1:S179"/>
+  <dimension ref="A1:Y179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="63.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.90625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.453125" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" customWidth="1"/>
-    <col min="13" max="13" width="24.81640625" customWidth="1"/>
-    <col min="14" max="14" width="23.26953125" customWidth="1"/>
-    <col min="15" max="15" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19" style="6" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="6" customWidth="1"/>
+    <col min="21" max="22" width="11.42578125" style="6"/>
+    <col min="23" max="23" width="12.140625" style="6" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="5"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -460,12 +488,18 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+    </row>
+    <row r="2" spans="1:25" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -482,11 +516,11 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -503,13 +537,15 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -524,11 +560,11 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -545,11 +581,11 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="40.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="40.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -566,11 +602,11 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -587,11 +623,11 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -608,11 +644,11 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -629,11 +665,11 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -650,11 +686,11 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="40.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="40.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -671,541 +707,541 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="5"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="5"/>
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="5"/>
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="5"/>
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="5"/>
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="5"/>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="5"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
     </row>
   </sheetData>
